--- a/prob_info.xlsx
+++ b/prob_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Operations Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E15AE75-E391-4846-AF11-CA01F0C93F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C4FC10-B182-4EFD-9CB6-5DAD702DD5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8743229B-7F8A-4639-8BC1-2B1665772596}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8743229B-7F8A-4639-8BC1-2B1665772596}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -26,37 +26,37 @@
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Folha1!$B$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Folha1!$B$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Folha1!$B$11</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Folha1!$B$12</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Folha1!$B$12</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Folha1!$B$9</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Folha1!$B$12</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Folha1!$B$12</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Folha1!$B$13</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Folha1!$B$6</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Folha1!$B$7</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Folha1!$B$9</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Folha1!$B$8</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Folha1!$B$9</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Folha1!$D$10</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Folha1!$D$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Folha1!$D$11</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Folha1!$D$12</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Folha1!$D$12</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Folha1!$D$9</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Folha1!$D$12</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Folha1!$D$12</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Folha1!$D$13</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">"número inteiro"</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">"número inteiro"</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Folha1!$D$9</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -439,20 +439,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -771,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AE6382-DB21-4B35-A3E0-7C8E84754F55}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>7.9365079365079367</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -814,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>5.6022408963585431</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -823,7 +821,7 @@
       </c>
       <c r="B8">
         <f>360*$B$6-510*$B$7</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -838,7 +836,7 @@
       </c>
       <c r="B9">
         <f>360*$B$6-510*$B$7</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -853,7 +851,7 @@
       </c>
       <c r="B10">
         <f>360*$B$6-510*$B$7</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -868,7 +866,7 @@
       </c>
       <c r="B11">
         <f>3150*$B$6</f>
-        <v>25000</v>
+        <v>31500</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -883,7 +881,7 @@
       </c>
       <c r="B12">
         <f>3000*$B$6+6000*$B$7</f>
-        <v>57422.969187675066</v>
+        <v>72000</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -898,7 +896,7 @@
       </c>
       <c r="B13">
         <f>$B$7</f>
-        <v>5.6022408963585431</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1019,10 +1017,10 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1055,10 +1053,10 @@
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
         <v>7.9365079365079367</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -1072,10 +1070,10 @@
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
         <v>5.6022408963585431</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1114,7 +1112,7 @@
       <c r="C27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>0</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -1134,7 +1132,7 @@
       <c r="C28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -1143,7 +1141,7 @@
       <c r="F28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1154,7 +1152,7 @@
       <c r="C29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>25000</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -1163,7 +1161,7 @@
       <c r="F29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1174,7 +1172,7 @@
       <c r="C30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>57422.969187675066</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -1194,7 +1192,7 @@
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="2">
         <v>5.6022408963585431</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1203,7 +1201,7 @@
       <c r="F31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="2">
         <v>0.60224089635854305</v>
       </c>
     </row>
@@ -1216,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C857C40-076F-4305-9823-A7A2F2BEADE1}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1252,44 +1250,44 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1345,44 +1343,44 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1545,20 +1543,20 @@
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1569,50 +1567,50 @@
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1623,19 +1621,19 @@
       <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>7.9365079365079367</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>7.9365079365079358</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
         <v>8.0753968253968242</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>50</v>
       </c>
     </row>
@@ -1646,19 +1644,19 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>5.6022408963585431</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="2">
         <v>5.5042016806722689</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="2">
         <v>50</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <v>5.6022408963585431</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <v>0</v>
       </c>
     </row>
